--- a/RawDataAmendmends/OtherData/taxes_on_production_by_industry.xlsx
+++ b/RawDataAmendmends/OtherData/taxes_on_production_by_industry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimi2013-my.sharepoint.com/personal/stefano_chiesa3_studenti_unimi_it/Documents/causal_inference_project/RawDataAmendmends/OtherData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6FE8C6E2-161C-4F99-8697-CBB012D51FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40736E7A-4886-4380-9EC3-043031CFD9A3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6FE8C6E2-161C-4F99-8697-CBB012D51FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47AFD15-B7C3-421D-947C-AD5AAFBCCE88}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,109 +44,109 @@
     <t>Economic Activities</t>
   </si>
   <si>
+    <t xml:space="preserve">y2014  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2015  </t>
+  </si>
+  <si>
+    <t>y2016</t>
+  </si>
+  <si>
+    <t>y2017</t>
+  </si>
+  <si>
+    <t>y2018</t>
+  </si>
+  <si>
+    <t>y2019</t>
+  </si>
+  <si>
+    <t>y2020</t>
+  </si>
+  <si>
+    <t>y2021</t>
+  </si>
+  <si>
+    <t>y2022</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodation and food service activities  </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative and support service activities  </t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arts, entertainment and recreation  </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education  </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity, gas, steam and air conditioning supply  </t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human health and social work activities  </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information and communication  </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing  </t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">Mining and quarrying  </t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing  </t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity, gas, steam and air conditioning supply  </t>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other service activities  </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional, scientific and technical activities  </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation and storage  </t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
     <t xml:space="preserve">Water supply, sewerage, waste management and remediation activities  </t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportation and storage  </t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accommodation and food service activities  </t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information and communication  </t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional, scientific and technical activities  </t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative and support service activities  </t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education  </t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human health and social work activities  </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arts, entertainment and recreation  </t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other service activities  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2015  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2014  </t>
-  </si>
-  <si>
-    <t>y2016</t>
-  </si>
-  <si>
-    <t>y2017</t>
-  </si>
-  <si>
-    <t>y2018</t>
-  </si>
-  <si>
-    <t>y2019</t>
-  </si>
-  <si>
-    <t>y2020</t>
-  </si>
-  <si>
-    <t>y2021</t>
-  </si>
-  <si>
-    <t>y2022</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0#########################################################################################################################"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -232,7 +232,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,12 +567,12 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,249 +580,249 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>253.41449039476799</v>
-      </c>
-      <c r="D2" s="2">
-        <v>225.05580150694897</v>
+        <v>1265.9415962357721</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1191.4598003066512</v>
       </c>
       <c r="E2" s="1">
-        <v>186.48863602232188</v>
+        <v>1158.3279262257952</v>
       </c>
       <c r="F2" s="1">
-        <v>181.48540007877236</v>
+        <v>1107.5080489689474</v>
       </c>
       <c r="G2" s="1">
-        <v>194.51513535731556</v>
+        <v>1182.262188920213</v>
       </c>
       <c r="H2" s="1">
-        <v>200.52347812366747</v>
+        <v>1150.9128911231412</v>
       </c>
       <c r="I2" s="1">
-        <v>157.5</v>
+        <v>726.7</v>
       </c>
       <c r="J2" s="1">
-        <v>172.66464442568048</v>
+        <v>812.67230881194359</v>
       </c>
       <c r="K2" s="1">
-        <v>198.76847011328712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>980.96004898903414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>7782.9604096658577</v>
+        <v>1112.4536310595493</v>
       </c>
       <c r="D3" s="1">
-        <v>6947.3389977514962</v>
+        <v>957.46342586312494</v>
       </c>
       <c r="E3" s="1">
-        <v>4271.4435187330055</v>
+        <v>732.68535818367275</v>
       </c>
       <c r="F3" s="1">
-        <v>5155.8721806253252</v>
+        <v>770.65244915868391</v>
       </c>
       <c r="G3" s="1">
-        <v>5605.9744278908993</v>
+        <v>888.5805047004643</v>
       </c>
       <c r="H3" s="1">
-        <v>5929.2236006546964</v>
+        <v>862.1111487259069</v>
       </c>
       <c r="I3" s="1">
-        <v>4029.2</v>
+        <v>590.4</v>
       </c>
       <c r="J3" s="1">
-        <v>5196.7248098578457</v>
+        <v>805.3102574578071</v>
       </c>
       <c r="K3" s="1">
-        <v>6970.1416372770263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>889.78601317714288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
+        <v>398.16402486772336</v>
+      </c>
+      <c r="D4" s="1">
+        <v>393.89903524024447</v>
+      </c>
+      <c r="E4" s="1">
+        <v>381.82339598172024</v>
+      </c>
+      <c r="F4" s="1">
+        <v>429.5289955951684</v>
+      </c>
+      <c r="G4" s="1">
+        <v>421.38247814492843</v>
+      </c>
+      <c r="H4" s="1">
+        <v>404.54213639391281</v>
+      </c>
+      <c r="I4" s="2">
+        <v>323</v>
+      </c>
+      <c r="J4" s="1">
+        <v>347.19434186107554</v>
+      </c>
+      <c r="K4" s="1">
+        <v>375.49187485116175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3173.6952263597955</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3163.7296370743975</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3245.7045896571121</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3245.6011637827487</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3259.5351349493963</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3297.652537151268</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3347.8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3608.0922883199187</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3331.6172051302406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
         <v>2375.0026600811111</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1">
         <v>2192.2901431724849</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="1">
         <v>2110.9320399614389</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F6" s="1">
         <v>2000.3024079230872</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G6" s="1">
         <v>2103.7977372142723</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H6" s="1">
         <v>2557.0737952363688</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I6" s="2">
         <v>2481</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J6" s="1">
         <v>2438.6058905441619</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K6" s="1">
         <v>6378.7351303539226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>684.3733316665207</v>
-      </c>
-      <c r="D5" s="1">
-        <v>581.44553649603517</v>
-      </c>
-      <c r="E5" s="1">
-        <v>383.36632457539639</v>
-      </c>
-      <c r="F5" s="1">
-        <v>447.81979739482068</v>
-      </c>
-      <c r="G5" s="1">
-        <v>460.36588337149789</v>
-      </c>
-      <c r="H5" s="1">
-        <v>448.68126853069617</v>
-      </c>
-      <c r="I5" s="1">
-        <v>360.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>460.96257545366433</v>
-      </c>
-      <c r="K5" s="1">
-        <v>496.78509463275236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3184.2841482708141</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2699.9502616402146</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2206.7993365818497</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2398.9402715899541</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2458.365873927065</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2446.5262403146062</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1959.9</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2217.5480285506242</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2289.420863431727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="29.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>1265.9415962357721</v>
+        <v>3467.2036929224987</v>
       </c>
       <c r="D7" s="1">
-        <v>1191.4598003066512</v>
+        <v>3384.1610043038063</v>
       </c>
       <c r="E7" s="1">
-        <v>1158.3279262257952</v>
+        <v>3183.1645506601062</v>
       </c>
       <c r="F7" s="1">
-        <v>1107.5080489689474</v>
+        <v>3159.9392420210434</v>
       </c>
       <c r="G7" s="1">
-        <v>1182.262188920213</v>
+        <v>3205.6817710281562</v>
       </c>
       <c r="H7" s="1">
-        <v>1150.9128911231412</v>
-      </c>
-      <c r="I7" s="1">
-        <v>726.7</v>
+        <v>3207.0774402099505</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3100</v>
       </c>
       <c r="J7" s="1">
-        <v>812.67230881194359</v>
+        <v>3276.4073346448913</v>
       </c>
       <c r="K7" s="1">
-        <v>980.96004898903414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3152.7165099849176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>1600.9833099057721</v>
@@ -852,217 +852,220 @@
         <v>876.81299116609773</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
+        <v>7782.9604096658577</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6947.3389977514962</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4271.4435187330055</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5155.8721806253252</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5605.9744278908993</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5929.2236006546964</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4029.2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5196.7248098578457</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6970.1416372770263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>253.41449039476799</v>
+      </c>
+      <c r="D10" s="2">
+        <v>225.05580150694897</v>
+      </c>
+      <c r="E10" s="1">
+        <v>186.48863602232188</v>
+      </c>
+      <c r="F10" s="1">
+        <v>181.48540007877236</v>
+      </c>
+      <c r="G10" s="1">
+        <v>194.51513535731556</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200.52347812366747</v>
+      </c>
+      <c r="I10" s="1">
+        <v>157.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>172.66464442568048</v>
+      </c>
+      <c r="K10" s="1">
+        <v>198.76847011328712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>450.08058375184424</v>
+      </c>
+      <c r="D11" s="1">
+        <v>392.76861797240133</v>
+      </c>
+      <c r="E11" s="1">
+        <v>357.03367657665706</v>
+      </c>
+      <c r="F11" s="1">
+        <v>351.38662568443164</v>
+      </c>
+      <c r="G11" s="1">
+        <v>356.57759059045088</v>
+      </c>
+      <c r="H11" s="2">
+        <v>357.50699784996488</v>
+      </c>
+      <c r="I11" s="1">
+        <v>200.1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>264.54304532530352</v>
+      </c>
+      <c r="K11" s="2">
+        <v>270.34689225814498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
         <v>1886.3701761677914</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="1">
         <v>1731.2854283048262</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="1">
         <v>1491.0861929286143</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F12" s="1">
         <v>1520.8801696410897</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G12" s="1">
         <v>1581.6411471047841</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H12" s="1">
         <v>1593.9020091294105</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I12" s="1">
         <v>1077.2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J12" s="1">
         <v>1574.9881863615938</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K12" s="1">
         <v>1553.0431035460349</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1112.4536310595493</v>
-      </c>
-      <c r="D10" s="1">
-        <v>957.46342586312494</v>
-      </c>
-      <c r="E10" s="1">
-        <v>732.68535818367275</v>
-      </c>
-      <c r="F10" s="1">
-        <v>770.65244915868391</v>
-      </c>
-      <c r="G10" s="1">
-        <v>888.5805047004643</v>
-      </c>
-      <c r="H10" s="1">
-        <v>862.1111487259069</v>
-      </c>
-      <c r="I10" s="1">
-        <v>590.4</v>
-      </c>
-      <c r="J10" s="1">
-        <v>805.3102574578071</v>
-      </c>
-      <c r="K10" s="1">
-        <v>889.78601317714288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3173.6952263597955</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3163.7296370743975</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3245.7045896571121</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3245.6011637827487</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3259.5351349493963</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3297.652537151268</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3347.8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3608.0922883199187</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3331.6172051302406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3467.2036929224987</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3384.1610043038063</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3183.1645506601062</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3159.9392420210434</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3205.6817710281562</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3207.0774402099505</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3100</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3276.4073346448913</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3152.7165099849176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>398.16402486772336</v>
+        <v>3184.2841482708141</v>
       </c>
       <c r="D13" s="1">
-        <v>393.89903524024447</v>
+        <v>2699.9502616402146</v>
       </c>
       <c r="E13" s="1">
-        <v>381.82339598172024</v>
+        <v>2206.7993365818497</v>
       </c>
       <c r="F13" s="1">
-        <v>429.5289955951684</v>
+        <v>2398.9402715899541</v>
       </c>
       <c r="G13" s="1">
-        <v>421.38247814492843</v>
+        <v>2458.365873927065</v>
       </c>
       <c r="H13" s="1">
-        <v>404.54213639391281</v>
-      </c>
-      <c r="I13" s="2">
-        <v>323</v>
+        <v>2446.5262403146062</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1959.9</v>
       </c>
       <c r="J13" s="1">
-        <v>347.19434186107554</v>
+        <v>2217.5480285506242</v>
       </c>
       <c r="K13" s="1">
-        <v>375.49187485116175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2289.420863431727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
-        <v>450.08058375184424</v>
+        <v>684.3733316665207</v>
       </c>
       <c r="D14" s="1">
-        <v>392.76861797240133</v>
+        <v>581.44553649603517</v>
       </c>
       <c r="E14" s="1">
-        <v>357.03367657665706</v>
+        <v>383.36632457539639</v>
       </c>
       <c r="F14" s="1">
-        <v>351.38662568443164</v>
+        <v>447.81979739482068</v>
       </c>
       <c r="G14" s="1">
-        <v>356.57759059045088</v>
-      </c>
-      <c r="H14" s="2">
-        <v>357.50699784996488</v>
+        <v>460.36588337149789</v>
+      </c>
+      <c r="H14" s="1">
+        <v>448.68126853069617</v>
       </c>
       <c r="I14" s="1">
-        <v>200.1</v>
+        <v>360.5</v>
       </c>
       <c r="J14" s="1">
-        <v>264.54304532530352</v>
-      </c>
-      <c r="K14" s="2">
-        <v>270.34689225814498</v>
+        <v>460.96257545366433</v>
+      </c>
+      <c r="K14" s="1">
+        <v>496.78509463275236</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
